--- a/GATEWAY/A1#160000000000XX/Regione Puglia/CCE/1/accreditamento-checklist.xlsx
+++ b/GATEWAY/A1#160000000000XX/Regione Puglia/CCE/1/accreditamento-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exprivia.sharepoint.com/sites/DFEH-PS-FSE2.0adeguamenti/Documenti condivisi/Documenti Accreditamento/Accreditamento CCE_PUGLIA/20230518_TestAccreditamento/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exprivia.sharepoint.com/sites/DFEH-PS-FSE2.0adeguamenti/Documenti condivisi/Documenti Accreditamento/Accreditamento CCE_PUGLIA/20230613_TestAccreditamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="8_{0554E3F4-1FF1-41C4-99A0-467012434CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2702F26-415D-4CD8-8CC0-8A2426F564AF}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="8_{0554E3F4-1FF1-41C4-99A0-467012434CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D9B409-94D0-452D-A133-880FD764F7B6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="467">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>NOME FORNITORE:</t>
+  </si>
+  <si>
+    <t>Exprivia S.p,A.</t>
   </si>
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
@@ -594,9 +597,6 @@
     <t>i parametri del token possono essere valorizzati in maniera errata ma non possono essere mancanti</t>
   </si>
   <si>
-    <t>connection timeout</t>
-  </si>
-  <si>
     <t>PSS</t>
   </si>
   <si>
@@ -673,6 +673,15 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
   </si>
   <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>In caso di errore viene mostrato l'errore all'utente.
+E' possibile configurare se interrompere o portare a termine il processo di firma.
+L'errore viene tracciato nei relativi log.
+In backoffice si potrà correggere e procedere al reinvio o alla richiesta al medico di creare una nuova versione del referto.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_PSS_KO</t>
   </si>
   <si>
@@ -699,6 +708,15 @@
   </si>
   <si>
     <t>VALIDAZIONE_LDO_TIMEOUT</t>
+  </si>
+  <si>
+    <t>connection timeout</t>
+  </si>
+  <si>
+    <t>E' possibile configurare i ms di timeout ed il numero di tentativi da effettuare prima di restituire l'errore di timeout all'utente.
+In questo caso viene mostrato l'errore all'utente.
+L'errore viene tracciato nei relativi log.
+In backoffice si potrà procedere al reinvio.</t>
   </si>
   <si>
     <t>VALIDAZIONE_PSS_TIMEOUT</t>
@@ -835,6 +853,9 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>Campo  obbligatorio su applicativo</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT9_KO</t>
@@ -1924,79 +1945,22 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.16017401.4.6.8c78196896c45a4f2dc2775ca4a8a687dfeb26a1fed31a665e05def3bbfda310.fc4711f3a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-10T16:34:31Z</t>
-  </si>
-  <si>
-    <t>e7ec4f9ae43447ec</t>
-  </si>
-  <si>
-    <t>Exprivia S.p,A.</t>
-  </si>
-  <si>
-    <t>2023-05-11T12:26:39Z</t>
-  </si>
-  <si>
-    <t>91541de3e0247392</t>
-  </si>
-  <si>
-    <t>Campo  obbligatorio su applicativo</t>
-  </si>
-  <si>
-    <t>91a5d7946f5cede3</t>
-  </si>
-  <si>
-    <t>2023-05-18T15:46:05Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.16017401.4.6.6da5b058479974874fdc85900499d68f4c283a6ebdc57bb92ebbce8290d8e719.4f16f6f640^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>4b88433b663cbce7</t>
-  </si>
-  <si>
-    <t>2023-05-18T16:09:31Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.16017401.4.6.dc598f69f5e9be56acceb2ec7dbb0619f9920c3b6dec1d269c031154dbac5588.df6ec39c36^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>4421b0393d6bc6c5</t>
-  </si>
-  <si>
-    <t>2023-05-18T16:13:52Z</t>
-  </si>
-  <si>
-    <t>2023-05-18T16:20:32Z</t>
-  </si>
-  <si>
-    <t>62f2e5ac3a7a068d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10100.4.6.3c741d53797a2bfc6be0ecf8010ca13053cbd87c3f445528eab30caba7cfa0ba.7517f62625^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>In caso di errore viene mostrato l'errore all'utente.
-E' possibile configurare se interrompere o portare a termine il processo di firma.
-L'errore viene tracciato nei relativi log.
-In backoffice si potrà correggere e procedere al reinvio o alla richiesta al medico di creare una nuova versione del referto.</t>
-  </si>
-  <si>
-    <t>E' possibile configurare i ms di timeout ed il numero di tentativi da effettuare prima di restituire l'errore di timeout all'utente.
-In questo caso viene mostrato l'errore all'utente.
-L'errore viene tracciato nei relativi log.
-In backoffice si potrà procedere al reinvio.</t>
-  </si>
-  <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>{"traceID":"91541de3e0247392","spanID":"91541de3e0247392","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"JWT payload: Person id presente nel JWT differente dal codice fiscale del paziente previsto sul CDA","status":403,"instance":"/jwt-person-id","workflowInstanceId":"2.16.840.1.113883.2.9.2.10100.4.6.a0c37062165ff67facd7ec773fd31c399f714ee7e047e195e97cf5f17cb16789.8ee9b111f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
-    <t>{"traceID":"e7ec4f9ae43447ec","spanID":"e7ec4f9ae43447ec","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il codice fiscale nel campo person_id non ? corretto","status":403,"instance":"/jwt-mandatory-field-malformed","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}</t>
+    <t>2023-06-13T16:38:31Z</t>
+  </si>
+  <si>
+    <t>225f2db5058ae786</t>
+  </si>
+  <si>
+    <t>379390eb9a6d2885</t>
+  </si>
+  <si>
+    <t>2023-06-13T16:43:33Z</t>
+  </si>
+  <si>
+    <t>{"traceID":"379390eb9a6d2885","spanID":"379390eb9a6d2885","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il codice fiscale nel campo person_id non ? corretto","status":403,"instance":"/jwt-mandatory-field-malformed","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}</t>
+  </si>
+  <si>
+    <t>{"traceID":"225f2db5058ae786","spanID":"225f2db5058ae786","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il codice fiscale nel campo person_id non ? corretto","status":403,"instance":"/jwt-mandatory-field-malformed","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}</t>
   </si>
 </sst>
 </file>
@@ -2095,6 +2059,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2411,7 +2376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2521,10 +2486,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2538,6 +2499,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2559,6 +2524,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2870,37 +2838,37 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="43"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
@@ -2908,20 +2876,20 @@
       </c>
     </row>
     <row r="10" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="43"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4007,10 +3975,10 @@
   <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N52" sqref="N52"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4032,7 +4000,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="40"/>
+      <c r="C1" s="44"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -4055,7 +4023,7 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49" t="s">
-        <v>459</v>
+        <v>19</v>
       </c>
       <c r="D2" s="48"/>
       <c r="F2" s="7"/>
@@ -4076,11 +4044,11 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="48"/>
       <c r="F3" s="7"/>
@@ -4103,7 +4071,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="2"/>
@@ -4127,7 +4095,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="48"/>
       <c r="F5" s="7"/>
@@ -4205,64 +4173,64 @@
     </row>
     <row r="9" spans="1:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4270,16 +4238,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
@@ -4296,7 +4264,7 @@
       <c r="R10" s="20"/>
       <c r="S10" s="21"/>
       <c r="T10" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4304,16 +4272,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -4330,7 +4298,7 @@
       <c r="R11" s="20"/>
       <c r="S11" s="21"/>
       <c r="T11" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4338,16 +4306,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
@@ -4364,7 +4332,7 @@
       <c r="R12" s="20"/>
       <c r="S12" s="21"/>
       <c r="T12" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4372,16 +4340,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
@@ -4398,7 +4366,7 @@
       <c r="R13" s="20"/>
       <c r="S13" s="21"/>
       <c r="T13" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4406,16 +4374,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
@@ -4432,7 +4400,7 @@
       <c r="R14" s="20"/>
       <c r="S14" s="21"/>
       <c r="T14" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4440,33 +4408,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="17">
-        <v>45064</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>465</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -4476,7 +4438,7 @@
       <c r="R15" s="20"/>
       <c r="S15" s="21"/>
       <c r="T15" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4484,33 +4446,27 @@
         <v>7</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="17">
-        <v>45064</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>468</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -4520,7 +4476,7 @@
       <c r="R16" s="20"/>
       <c r="S16" s="21"/>
       <c r="T16" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4528,33 +4484,27 @@
         <v>8</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="17">
-        <v>45064</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>456</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -4564,7 +4514,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="21"/>
       <c r="T17" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4572,26 +4522,26 @@
         <v>9</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -4602,7 +4552,7 @@
       <c r="R18" s="20"/>
       <c r="S18" s="21"/>
       <c r="T18" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4610,16 +4560,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -4636,7 +4586,7 @@
       <c r="R19" s="20"/>
       <c r="S19" s="21"/>
       <c r="T19" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4644,16 +4594,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="18"/>
@@ -4670,7 +4620,7 @@
       <c r="R20" s="20"/>
       <c r="S20" s="21"/>
       <c r="T20" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4678,16 +4628,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
@@ -4704,7 +4654,7 @@
       <c r="R21" s="20"/>
       <c r="S21" s="21"/>
       <c r="T21" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4712,16 +4662,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="18"/>
@@ -4738,24 +4688,24 @@
       <c r="R22" s="20"/>
       <c r="S22" s="21"/>
       <c r="T22" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>16</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
@@ -4772,24 +4722,24 @@
       <c r="R23" s="20"/>
       <c r="S23" s="21"/>
       <c r="T23" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="18"/>
@@ -4806,24 +4756,24 @@
       <c r="R24" s="20"/>
       <c r="S24" s="21"/>
       <c r="T24" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>18</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
@@ -4840,24 +4790,24 @@
       <c r="R25" s="20"/>
       <c r="S25" s="21"/>
       <c r="T25" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>19</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
@@ -4874,7 +4824,7 @@
       <c r="R26" s="20"/>
       <c r="S26" s="21"/>
       <c r="T26" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4882,16 +4832,16 @@
         <v>20</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
@@ -4908,7 +4858,7 @@
       <c r="R27" s="20"/>
       <c r="S27" s="21"/>
       <c r="T27" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4916,16 +4866,16 @@
         <v>21</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
@@ -4942,7 +4892,7 @@
       <c r="R28" s="20"/>
       <c r="S28" s="21"/>
       <c r="T28" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4950,16 +4900,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
@@ -4976,7 +4926,7 @@
       <c r="R29" s="20"/>
       <c r="S29" s="21"/>
       <c r="T29" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4984,16 +4934,16 @@
         <v>23</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
@@ -5010,7 +4960,7 @@
       <c r="R30" s="20"/>
       <c r="S30" s="21"/>
       <c r="T30" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5018,16 +4968,16 @@
         <v>24</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
@@ -5044,7 +4994,7 @@
       <c r="R31" s="20"/>
       <c r="S31" s="21"/>
       <c r="T31" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5052,16 +5002,16 @@
         <v>25</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
@@ -5078,7 +5028,7 @@
       <c r="R32" s="20"/>
       <c r="S32" s="21"/>
       <c r="T32" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5086,16 +5036,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
@@ -5112,7 +5062,7 @@
       <c r="R33" s="20"/>
       <c r="S33" s="21"/>
       <c r="T33" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5120,16 +5070,16 @@
         <v>27</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -5146,7 +5096,7 @@
       <c r="R34" s="20"/>
       <c r="S34" s="21"/>
       <c r="T34" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5154,16 +5104,16 @@
         <v>28</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
@@ -5180,7 +5130,7 @@
       <c r="R35" s="20"/>
       <c r="S35" s="21"/>
       <c r="T35" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5188,37 +5138,37 @@
         <v>29</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
+        <v>109</v>
+      </c>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="20"/>
       <c r="S36" s="21"/>
       <c r="T36" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5226,7 +5176,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>110</v>
@@ -5235,7 +5185,7 @@
         <v>111</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
@@ -5252,7 +5202,7 @@
       <c r="R37" s="20"/>
       <c r="S37" s="21"/>
       <c r="T37" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5260,16 +5210,16 @@
         <v>31</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>112</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="18"/>
@@ -5286,7 +5236,7 @@
       <c r="R38" s="20"/>
       <c r="S38" s="21"/>
       <c r="T38" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5294,7 +5244,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>113</v>
@@ -5303,17 +5253,17 @@
         <v>114</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L39" s="28"/>
       <c r="M39" s="28"/>
@@ -5324,7 +5274,7 @@
       <c r="R39" s="29"/>
       <c r="S39" s="30"/>
       <c r="T39" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5332,16 +5282,16 @@
         <v>33</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>115</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
@@ -5358,7 +5308,7 @@
       <c r="R40" s="20"/>
       <c r="S40" s="21"/>
       <c r="T40" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5366,16 +5316,16 @@
         <v>34</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="18"/>
@@ -5392,7 +5342,7 @@
       <c r="R41" s="20"/>
       <c r="S41" s="21"/>
       <c r="T41" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5400,16 +5350,16 @@
         <v>35</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
@@ -5426,7 +5376,7 @@
       <c r="R42" s="20"/>
       <c r="S42" s="21"/>
       <c r="T42" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5434,10 +5384,10 @@
         <v>36</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>118</v>
@@ -5460,7 +5410,7 @@
       <c r="R43" s="20"/>
       <c r="S43" s="21"/>
       <c r="T43" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5468,53 +5418,53 @@
         <v>37</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="41" t="s">
         <v>120</v>
       </c>
       <c r="E44" s="38" t="s">
         <v>119</v>
       </c>
       <c r="F44" s="17">
-        <v>45056</v>
+        <v>45090</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>458</v>
+        <v>461</v>
+      </c>
+      <c r="H44" s="57" t="s">
+        <v>462</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>476</v>
+        <v>121</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N44" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="O44" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="N44" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="P44" s="19" t="s">
-        <v>474</v>
+        <v>122</v>
       </c>
       <c r="Q44" s="19"/>
       <c r="R44" s="20"/>
       <c r="S44" s="21"/>
       <c r="T44" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5522,13 +5472,13 @@
         <v>38</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E45" s="38" t="s">
         <v>119</v>
@@ -5548,7 +5498,7 @@
       <c r="R45" s="20"/>
       <c r="S45" s="21"/>
       <c r="T45" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5556,13 +5506,13 @@
         <v>39</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E46" s="38" t="s">
         <v>119</v>
@@ -5582,61 +5532,61 @@
       <c r="R46" s="20"/>
       <c r="S46" s="21"/>
       <c r="T46" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>40</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>113</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47" s="38" t="s">
         <v>119</v>
       </c>
       <c r="F47" s="17">
-        <v>45057</v>
+        <v>45090</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>476</v>
+        <v>121</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K47" s="28"/>
       <c r="L47" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N47" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="O47" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="N47" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="P47" s="19" t="s">
-        <v>474</v>
+        <v>122</v>
       </c>
       <c r="Q47" s="28"/>
       <c r="R47" s="29"/>
       <c r="S47" s="30"/>
       <c r="T47" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5644,13 +5594,13 @@
         <v>41</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E48" s="38" t="s">
         <v>119</v>
@@ -5670,7 +5620,7 @@
       <c r="R48" s="20"/>
       <c r="S48" s="21"/>
       <c r="T48" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5678,13 +5628,13 @@
         <v>42</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E49" s="38" t="s">
         <v>119</v>
@@ -5704,7 +5654,7 @@
       <c r="R49" s="20"/>
       <c r="S49" s="21"/>
       <c r="T49" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5712,13 +5662,13 @@
         <v>43</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E50" s="38" t="s">
         <v>119</v>
@@ -5738,7 +5688,7 @@
       <c r="R50" s="20"/>
       <c r="S50" s="21"/>
       <c r="T50" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5746,16 +5696,16 @@
         <v>44</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="18"/>
@@ -5770,11 +5720,11 @@
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S51" s="21"/>
       <c r="T51" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5782,47 +5732,47 @@
         <v>45</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F52" s="17">
-        <v>45057</v>
+        <v>45090</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="K52" s="41"/>
-      <c r="L52" s="42" t="s">
-        <v>66</v>
+      <c r="J52" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52" s="39"/>
+      <c r="L52" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="M52" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N52" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="O52" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="P52" s="42" t="s">
-        <v>475</v>
+        <v>60</v>
+      </c>
+      <c r="N52" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="O52" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="Q52" s="19"/>
       <c r="R52" s="20"/>
       <c r="S52" s="21"/>
       <c r="T52" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5830,16 +5780,16 @@
         <v>46</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="18"/>
@@ -5854,11 +5804,11 @@
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S53" s="21"/>
       <c r="T53" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5866,16 +5816,16 @@
         <v>47</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="18"/>
@@ -5890,11 +5840,11 @@
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S54" s="21"/>
       <c r="T54" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="180" x14ac:dyDescent="0.25">
@@ -5902,47 +5852,47 @@
         <v>48</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F55" s="17">
-        <v>45057</v>
+        <v>45090</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
-      <c r="J55" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="K55" s="41"/>
-      <c r="L55" s="42" t="s">
-        <v>66</v>
+      <c r="J55" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K55" s="39"/>
+      <c r="L55" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N55" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="O55" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="P55" s="42" t="s">
-        <v>475</v>
+        <v>60</v>
+      </c>
+      <c r="N55" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="O55" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="20"/>
       <c r="S55" s="21"/>
       <c r="T55" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -5950,16 +5900,16 @@
         <v>49</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
@@ -5974,11 +5924,11 @@
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S56" s="21"/>
       <c r="T56" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -5986,16 +5936,16 @@
         <v>50</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
@@ -6010,11 +5960,11 @@
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S57" s="21"/>
       <c r="T57" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -6022,16 +5972,16 @@
         <v>51</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
@@ -6046,11 +5996,11 @@
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S58" s="21"/>
       <c r="T58" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6058,16 +6008,16 @@
         <v>52</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
@@ -6084,7 +6034,7 @@
       <c r="R59" s="20"/>
       <c r="S59" s="21"/>
       <c r="T59" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6092,16 +6042,16 @@
         <v>53</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="18"/>
@@ -6118,7 +6068,7 @@
       <c r="R60" s="20"/>
       <c r="S60" s="21"/>
       <c r="T60" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6126,16 +6076,16 @@
         <v>54</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="18"/>
@@ -6152,7 +6102,7 @@
       <c r="R61" s="20"/>
       <c r="S61" s="21"/>
       <c r="T61" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6160,16 +6110,16 @@
         <v>55</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="18"/>
@@ -6186,7 +6136,7 @@
       <c r="R62" s="20"/>
       <c r="S62" s="21"/>
       <c r="T62" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6194,16 +6144,16 @@
         <v>56</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="18"/>
@@ -6220,7 +6170,7 @@
       <c r="R63" s="20"/>
       <c r="S63" s="21"/>
       <c r="T63" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6228,16 +6178,16 @@
         <v>57</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="18"/>
@@ -6254,7 +6204,7 @@
       <c r="R64" s="20"/>
       <c r="S64" s="21"/>
       <c r="T64" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6262,16 +6212,16 @@
         <v>58</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="18"/>
@@ -6288,7 +6238,7 @@
       <c r="R65" s="20"/>
       <c r="S65" s="21"/>
       <c r="T65" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6296,16 +6246,16 @@
         <v>59</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="18"/>
@@ -6322,7 +6272,7 @@
       <c r="R66" s="20"/>
       <c r="S66" s="21"/>
       <c r="T66" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6330,16 +6280,16 @@
         <v>60</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="18"/>
@@ -6356,7 +6306,7 @@
       <c r="R67" s="20"/>
       <c r="S67" s="21"/>
       <c r="T67" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6364,16 +6314,16 @@
         <v>61</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="18"/>
@@ -6390,7 +6340,7 @@
       <c r="R68" s="20"/>
       <c r="S68" s="21"/>
       <c r="T68" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6398,16 +6348,16 @@
         <v>62</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="18"/>
@@ -6424,7 +6374,7 @@
       <c r="R69" s="20"/>
       <c r="S69" s="21"/>
       <c r="T69" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6432,26 +6382,26 @@
         <v>63</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L70" s="19"/>
       <c r="M70" s="19"/>
@@ -6462,7 +6412,7 @@
       <c r="R70" s="20"/>
       <c r="S70" s="21"/>
       <c r="T70" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6470,26 +6420,26 @@
         <v>64</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
-      <c r="J71" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="K71" s="41" t="s">
-        <v>163</v>
+      <c r="J71" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K71" s="39" t="s">
+        <v>167</v>
       </c>
       <c r="L71" s="19"/>
       <c r="M71" s="19"/>
@@ -6500,7 +6450,7 @@
       <c r="R71" s="20"/>
       <c r="S71" s="21"/>
       <c r="T71" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6508,26 +6458,26 @@
         <v>65</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
       <c r="J72" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L72" s="19"/>
       <c r="M72" s="19"/>
@@ -6538,7 +6488,7 @@
       <c r="R72" s="20"/>
       <c r="S72" s="21"/>
       <c r="T72" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6546,26 +6496,26 @@
         <v>66</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F73" s="17"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
       <c r="J73" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>462</v>
+        <v>173</v>
       </c>
       <c r="L73" s="19"/>
       <c r="M73" s="19"/>
@@ -6576,7 +6526,7 @@
       <c r="R73" s="20"/>
       <c r="S73" s="21"/>
       <c r="T73" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6584,26 +6534,26 @@
         <v>67</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F74" s="17"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
       <c r="J74" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L74" s="19"/>
       <c r="M74" s="19"/>
@@ -6614,7 +6564,7 @@
       <c r="R74" s="20"/>
       <c r="S74" s="21"/>
       <c r="T74" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6622,26 +6572,26 @@
         <v>68</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F75" s="17"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
       <c r="J75" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L75" s="19"/>
       <c r="M75" s="19"/>
@@ -6652,7 +6602,7 @@
       <c r="R75" s="20"/>
       <c r="S75" s="21"/>
       <c r="T75" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6660,26 +6610,26 @@
         <v>69</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F76" s="17"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
       <c r="I76" s="18"/>
       <c r="J76" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L76" s="19"/>
       <c r="M76" s="19"/>
@@ -6690,7 +6640,7 @@
       <c r="R76" s="20"/>
       <c r="S76" s="21"/>
       <c r="T76" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6698,26 +6648,26 @@
         <v>70</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F77" s="17"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
       <c r="I77" s="18"/>
       <c r="J77" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L77" s="19"/>
       <c r="M77" s="19"/>
@@ -6728,7 +6678,7 @@
       <c r="R77" s="20"/>
       <c r="S77" s="21"/>
       <c r="T77" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6736,26 +6686,26 @@
         <v>71</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F78" s="17"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
       <c r="J78" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L78" s="19"/>
       <c r="M78" s="19"/>
@@ -6766,7 +6716,7 @@
       <c r="R78" s="20"/>
       <c r="S78" s="21"/>
       <c r="T78" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6774,26 +6724,26 @@
         <v>72</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
       <c r="J79" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L79" s="19"/>
       <c r="M79" s="19"/>
@@ -6804,7 +6754,7 @@
       <c r="R79" s="20"/>
       <c r="S79" s="21"/>
       <c r="T79" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6812,26 +6762,26 @@
         <v>73</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F80" s="17"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
       <c r="J80" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L80" s="19"/>
       <c r="M80" s="19"/>
@@ -6842,7 +6792,7 @@
       <c r="R80" s="20"/>
       <c r="S80" s="21"/>
       <c r="T80" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6850,26 +6800,26 @@
         <v>74</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
       <c r="J81" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L81" s="19"/>
       <c r="M81" s="19"/>
@@ -6880,7 +6830,7 @@
       <c r="R81" s="20"/>
       <c r="S81" s="21"/>
       <c r="T81" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -6888,16 +6838,16 @@
         <v>75</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F82" s="17"/>
       <c r="G82" s="18"/>
@@ -6914,7 +6864,7 @@
       <c r="R82" s="20"/>
       <c r="S82" s="21"/>
       <c r="T82" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -6922,16 +6872,16 @@
         <v>76</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F83" s="17"/>
       <c r="G83" s="18"/>
@@ -6948,7 +6898,7 @@
       <c r="R83" s="20"/>
       <c r="S83" s="21"/>
       <c r="T83" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -6956,16 +6906,16 @@
         <v>77</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="18"/>
@@ -6982,7 +6932,7 @@
       <c r="R84" s="20"/>
       <c r="S84" s="21"/>
       <c r="T84" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -6990,16 +6940,16 @@
         <v>78</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="18"/>
@@ -7016,7 +6966,7 @@
       <c r="R85" s="20"/>
       <c r="S85" s="21"/>
       <c r="T85" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7024,16 +6974,16 @@
         <v>79</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F86" s="17"/>
       <c r="G86" s="18"/>
@@ -7050,7 +7000,7 @@
       <c r="R86" s="20"/>
       <c r="S86" s="21"/>
       <c r="T86" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7058,16 +7008,16 @@
         <v>80</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="18"/>
@@ -7084,7 +7034,7 @@
       <c r="R87" s="20"/>
       <c r="S87" s="21"/>
       <c r="T87" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7092,16 +7042,16 @@
         <v>81</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="18"/>
@@ -7118,7 +7068,7 @@
       <c r="R88" s="20"/>
       <c r="S88" s="21"/>
       <c r="T88" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7126,16 +7076,16 @@
         <v>82</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="18"/>
@@ -7152,7 +7102,7 @@
       <c r="R89" s="20"/>
       <c r="S89" s="21"/>
       <c r="T89" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -7160,16 +7110,16 @@
         <v>83</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="18"/>
@@ -7186,7 +7136,7 @@
       <c r="R90" s="20"/>
       <c r="S90" s="21"/>
       <c r="T90" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -7194,16 +7144,16 @@
         <v>84</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="18"/>
@@ -7220,7 +7170,7 @@
       <c r="R91" s="20"/>
       <c r="S91" s="21"/>
       <c r="T91" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7228,16 +7178,16 @@
         <v>85</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="18"/>
@@ -7254,7 +7204,7 @@
       <c r="R92" s="20"/>
       <c r="S92" s="21"/>
       <c r="T92" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7262,16 +7212,16 @@
         <v>86</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F93" s="17"/>
       <c r="G93" s="18"/>
@@ -7288,7 +7238,7 @@
       <c r="R93" s="20"/>
       <c r="S93" s="21"/>
       <c r="T93" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7296,16 +7246,16 @@
         <v>87</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F94" s="17"/>
       <c r="G94" s="18"/>
@@ -7322,7 +7272,7 @@
       <c r="R94" s="20"/>
       <c r="S94" s="21"/>
       <c r="T94" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7330,16 +7280,16 @@
         <v>88</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="18"/>
@@ -7356,7 +7306,7 @@
       <c r="R95" s="20"/>
       <c r="S95" s="21"/>
       <c r="T95" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -7364,16 +7314,16 @@
         <v>89</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="18"/>
@@ -7390,7 +7340,7 @@
       <c r="R96" s="20"/>
       <c r="S96" s="21"/>
       <c r="T96" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -7398,16 +7348,16 @@
         <v>90</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="18"/>
@@ -7424,7 +7374,7 @@
       <c r="R97" s="20"/>
       <c r="S97" s="21"/>
       <c r="T97" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7432,16 +7382,16 @@
         <v>91</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F98" s="17"/>
       <c r="G98" s="18"/>
@@ -7458,7 +7408,7 @@
       <c r="R98" s="20"/>
       <c r="S98" s="21"/>
       <c r="T98" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7466,16 +7416,16 @@
         <v>92</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F99" s="17"/>
       <c r="G99" s="18"/>
@@ -7492,7 +7442,7 @@
       <c r="R99" s="20"/>
       <c r="S99" s="21"/>
       <c r="T99" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7500,16 +7450,16 @@
         <v>93</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F100" s="17"/>
       <c r="G100" s="18"/>
@@ -7526,7 +7476,7 @@
       <c r="R100" s="20"/>
       <c r="S100" s="21"/>
       <c r="T100" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7534,16 +7484,16 @@
         <v>94</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="18"/>
@@ -7560,7 +7510,7 @@
       <c r="R101" s="20"/>
       <c r="S101" s="21"/>
       <c r="T101" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7568,16 +7518,16 @@
         <v>95</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F102" s="17"/>
       <c r="G102" s="18"/>
@@ -7594,7 +7544,7 @@
       <c r="R102" s="20"/>
       <c r="S102" s="21"/>
       <c r="T102" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -7602,16 +7552,16 @@
         <v>96</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F103" s="17"/>
       <c r="G103" s="18"/>
@@ -7628,7 +7578,7 @@
       <c r="R103" s="20"/>
       <c r="S103" s="21"/>
       <c r="T103" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7636,16 +7586,16 @@
         <v>97</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F104" s="17"/>
       <c r="G104" s="18"/>
@@ -7662,7 +7612,7 @@
       <c r="R104" s="20"/>
       <c r="S104" s="21"/>
       <c r="T104" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7670,16 +7620,16 @@
         <v>98</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="18"/>
@@ -7696,7 +7646,7 @@
       <c r="R105" s="20"/>
       <c r="S105" s="21"/>
       <c r="T105" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7704,16 +7654,16 @@
         <v>99</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="18"/>
@@ -7730,7 +7680,7 @@
       <c r="R106" s="20"/>
       <c r="S106" s="21"/>
       <c r="T106" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -7738,16 +7688,16 @@
         <v>100</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F107" s="17"/>
       <c r="G107" s="18"/>
@@ -7764,7 +7714,7 @@
       <c r="R107" s="20"/>
       <c r="S107" s="21"/>
       <c r="T107" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7772,16 +7722,16 @@
         <v>101</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F108" s="17"/>
       <c r="G108" s="18"/>
@@ -7798,7 +7748,7 @@
       <c r="R108" s="20"/>
       <c r="S108" s="21"/>
       <c r="T108" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7806,16 +7756,16 @@
         <v>102</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F109" s="17"/>
       <c r="G109" s="18"/>
@@ -7832,7 +7782,7 @@
       <c r="R109" s="20"/>
       <c r="S109" s="21"/>
       <c r="T109" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7840,16 +7790,16 @@
         <v>103</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F110" s="17"/>
       <c r="G110" s="18"/>
@@ -7866,7 +7816,7 @@
       <c r="R110" s="20"/>
       <c r="S110" s="21"/>
       <c r="T110" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -7874,16 +7824,16 @@
         <v>104</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F111" s="17"/>
       <c r="G111" s="18"/>
@@ -7900,7 +7850,7 @@
       <c r="R111" s="20"/>
       <c r="S111" s="21"/>
       <c r="T111" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7908,16 +7858,16 @@
         <v>105</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="18"/>
@@ -7934,7 +7884,7 @@
       <c r="R112" s="20"/>
       <c r="S112" s="21"/>
       <c r="T112" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -7942,16 +7892,16 @@
         <v>106</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="18"/>
@@ -7968,7 +7918,7 @@
       <c r="R113" s="20"/>
       <c r="S113" s="21"/>
       <c r="T113" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -7976,16 +7926,16 @@
         <v>107</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F114" s="17"/>
       <c r="G114" s="18"/>
@@ -8002,7 +7952,7 @@
       <c r="R114" s="20"/>
       <c r="S114" s="21"/>
       <c r="T114" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8010,16 +7960,16 @@
         <v>108</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="18"/>
@@ -8036,7 +7986,7 @@
       <c r="R115" s="20"/>
       <c r="S115" s="21"/>
       <c r="T115" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8044,16 +7994,16 @@
         <v>109</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F116" s="17"/>
       <c r="G116" s="18"/>
@@ -8070,7 +8020,7 @@
       <c r="R116" s="20"/>
       <c r="S116" s="21"/>
       <c r="T116" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -8078,16 +8028,16 @@
         <v>110</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="18"/>
@@ -8104,7 +8054,7 @@
       <c r="R117" s="20"/>
       <c r="S117" s="21"/>
       <c r="T117" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8112,16 +8062,16 @@
         <v>111</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="18"/>
@@ -8138,7 +8088,7 @@
       <c r="R118" s="20"/>
       <c r="S118" s="21"/>
       <c r="T118" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8146,16 +8096,16 @@
         <v>112</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="18"/>
@@ -8172,7 +8122,7 @@
       <c r="R119" s="20"/>
       <c r="S119" s="21"/>
       <c r="T119" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8180,16 +8130,16 @@
         <v>113</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F120" s="17"/>
       <c r="G120" s="18"/>
@@ -8206,7 +8156,7 @@
       <c r="R120" s="20"/>
       <c r="S120" s="21"/>
       <c r="T120" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8214,16 +8164,16 @@
         <v>114</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F121" s="17"/>
       <c r="G121" s="18"/>
@@ -8240,7 +8190,7 @@
       <c r="R121" s="20"/>
       <c r="S121" s="21"/>
       <c r="T121" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8248,16 +8198,16 @@
         <v>115</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F122" s="17"/>
       <c r="G122" s="18"/>
@@ -8274,7 +8224,7 @@
       <c r="R122" s="20"/>
       <c r="S122" s="21"/>
       <c r="T122" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8282,16 +8232,16 @@
         <v>116</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F123" s="17"/>
       <c r="G123" s="18"/>
@@ -8308,7 +8258,7 @@
       <c r="R123" s="20"/>
       <c r="S123" s="21"/>
       <c r="T123" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8316,16 +8266,16 @@
         <v>117</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="18"/>
@@ -8342,7 +8292,7 @@
       <c r="R124" s="20"/>
       <c r="S124" s="21"/>
       <c r="T124" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8350,16 +8300,16 @@
         <v>118</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="18"/>
@@ -8376,7 +8326,7 @@
       <c r="R125" s="20"/>
       <c r="S125" s="21"/>
       <c r="T125" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8384,16 +8334,16 @@
         <v>119</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F126" s="17"/>
       <c r="G126" s="18"/>
@@ -8410,7 +8360,7 @@
       <c r="R126" s="20"/>
       <c r="S126" s="21"/>
       <c r="T126" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8418,16 +8368,16 @@
         <v>120</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="18"/>
@@ -8444,7 +8394,7 @@
       <c r="R127" s="20"/>
       <c r="S127" s="21"/>
       <c r="T127" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8452,16 +8402,16 @@
         <v>121</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F128" s="17"/>
       <c r="G128" s="18"/>
@@ -8478,7 +8428,7 @@
       <c r="R128" s="20"/>
       <c r="S128" s="21"/>
       <c r="T128" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -8486,16 +8436,16 @@
         <v>122</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="18"/>
@@ -8512,7 +8462,7 @@
       <c r="R129" s="20"/>
       <c r="S129" s="21"/>
       <c r="T129" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -8520,16 +8470,16 @@
         <v>123</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="18"/>
@@ -8546,7 +8496,7 @@
       <c r="R130" s="20"/>
       <c r="S130" s="21"/>
       <c r="T130" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -8554,16 +8504,16 @@
         <v>124</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F131" s="17"/>
       <c r="G131" s="18"/>
@@ -8580,7 +8530,7 @@
       <c r="R131" s="20"/>
       <c r="S131" s="21"/>
       <c r="T131" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -8588,16 +8538,16 @@
         <v>125</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F132" s="17"/>
       <c r="G132" s="18"/>
@@ -8614,7 +8564,7 @@
       <c r="R132" s="20"/>
       <c r="S132" s="21"/>
       <c r="T132" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -8622,16 +8572,16 @@
         <v>126</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F133" s="17"/>
       <c r="G133" s="18"/>
@@ -8648,24 +8598,24 @@
       <c r="R133" s="20"/>
       <c r="S133" s="21"/>
       <c r="T133" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
         <v>127</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F134" s="17"/>
       <c r="G134" s="18"/>
@@ -8682,24 +8632,24 @@
       <c r="R134" s="20"/>
       <c r="S134" s="21"/>
       <c r="T134" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
         <v>128</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F135" s="17"/>
       <c r="G135" s="18"/>
@@ -8716,24 +8666,24 @@
       <c r="R135" s="20"/>
       <c r="S135" s="21"/>
       <c r="T135" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>129</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F136" s="17"/>
       <c r="G136" s="18"/>
@@ -8750,24 +8700,24 @@
       <c r="R136" s="20"/>
       <c r="S136" s="21"/>
       <c r="T136" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>130</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F137" s="17"/>
       <c r="G137" s="18"/>
@@ -8784,24 +8734,24 @@
       <c r="R137" s="20"/>
       <c r="S137" s="21"/>
       <c r="T137" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>131</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F138" s="17"/>
       <c r="G138" s="18"/>
@@ -8818,24 +8768,24 @@
       <c r="R138" s="20"/>
       <c r="S138" s="21"/>
       <c r="T138" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>132</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F139" s="17"/>
       <c r="G139" s="18"/>
@@ -8852,24 +8802,24 @@
       <c r="R139" s="20"/>
       <c r="S139" s="21"/>
       <c r="T139" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14">
         <v>133</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F140" s="17"/>
       <c r="G140" s="18"/>
@@ -8886,24 +8836,24 @@
       <c r="R140" s="20"/>
       <c r="S140" s="21"/>
       <c r="T140" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>134</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F141" s="17"/>
       <c r="G141" s="18"/>
@@ -8920,24 +8870,24 @@
       <c r="R141" s="20"/>
       <c r="S141" s="21"/>
       <c r="T141" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>135</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F142" s="17"/>
       <c r="G142" s="18"/>
@@ -8954,24 +8904,24 @@
       <c r="R142" s="20"/>
       <c r="S142" s="21"/>
       <c r="T142" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>136</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="18"/>
@@ -8988,24 +8938,24 @@
       <c r="R143" s="20"/>
       <c r="S143" s="21"/>
       <c r="T143" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>137</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="18"/>
@@ -9022,24 +8972,24 @@
       <c r="R144" s="20"/>
       <c r="S144" s="21"/>
       <c r="T144" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>138</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F145" s="17"/>
       <c r="G145" s="18"/>
@@ -9056,24 +9006,24 @@
       <c r="R145" s="20"/>
       <c r="S145" s="21"/>
       <c r="T145" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
         <v>139</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F146" s="17"/>
       <c r="G146" s="18"/>
@@ -9090,24 +9040,24 @@
       <c r="R146" s="20"/>
       <c r="S146" s="21"/>
       <c r="T146" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>140</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="18"/>
@@ -9124,24 +9074,24 @@
       <c r="R147" s="20"/>
       <c r="S147" s="21"/>
       <c r="T147" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14">
         <v>141</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F148" s="17"/>
       <c r="G148" s="18"/>
@@ -9158,24 +9108,24 @@
       <c r="R148" s="20"/>
       <c r="S148" s="21"/>
       <c r="T148" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>142</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F149" s="17"/>
       <c r="G149" s="18"/>
@@ -9192,24 +9142,24 @@
       <c r="R149" s="20"/>
       <c r="S149" s="21"/>
       <c r="T149" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>143</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F150" s="17"/>
       <c r="G150" s="18"/>
@@ -9226,24 +9176,24 @@
       <c r="R150" s="20"/>
       <c r="S150" s="21"/>
       <c r="T150" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>144</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F151" s="17"/>
       <c r="G151" s="18"/>
@@ -9260,24 +9210,24 @@
       <c r="R151" s="20"/>
       <c r="S151" s="21"/>
       <c r="T151" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14">
         <v>145</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F152" s="17"/>
       <c r="G152" s="18"/>
@@ -9294,24 +9244,24 @@
       <c r="R152" s="20"/>
       <c r="S152" s="21"/>
       <c r="T152" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14">
         <v>146</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F153" s="17"/>
       <c r="G153" s="18"/>
@@ -9328,7 +9278,7 @@
       <c r="R153" s="20"/>
       <c r="S153" s="21"/>
       <c r="T153" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -9336,33 +9286,27 @@
         <v>147</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="F154" s="17">
-        <v>45064</v>
-      </c>
-      <c r="G154" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="H154" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="I154" s="18" t="s">
-        <v>473</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="F154" s="17"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
       <c r="J154" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K154" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="K154" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="L154" s="19"/>
       <c r="M154" s="19"/>
       <c r="N154" s="19"/>
@@ -9372,7 +9316,7 @@
       <c r="R154" s="20"/>
       <c r="S154" s="21"/>
       <c r="T154" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -9380,26 +9324,26 @@
         <v>148</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C155" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F155" s="17"/>
       <c r="G155" s="18"/>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
       <c r="J155" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K155" s="19" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L155" s="19"/>
       <c r="M155" s="19"/>
@@ -9410,7 +9354,7 @@
       <c r="R155" s="20"/>
       <c r="S155" s="21"/>
       <c r="T155" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -9418,26 +9362,26 @@
         <v>149</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F156" s="17"/>
       <c r="G156" s="18"/>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
       <c r="J156" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K156" s="19" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L156" s="19"/>
       <c r="M156" s="19"/>
@@ -9448,7 +9392,7 @@
       <c r="R156" s="20"/>
       <c r="S156" s="21"/>
       <c r="T156" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -9456,26 +9400,26 @@
         <v>150</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="18"/>
       <c r="H157" s="18"/>
       <c r="I157" s="18"/>
       <c r="J157" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K157" s="19" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L157" s="19"/>
       <c r="M157" s="19"/>
@@ -9486,7 +9430,7 @@
       <c r="R157" s="20"/>
       <c r="S157" s="21"/>
       <c r="T157" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -9494,26 +9438,26 @@
         <v>151</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="18"/>
       <c r="H158" s="18"/>
       <c r="I158" s="18"/>
       <c r="J158" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K158" s="19" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L158" s="19"/>
       <c r="M158" s="19"/>
@@ -9524,7 +9468,7 @@
       <c r="R158" s="20"/>
       <c r="S158" s="21"/>
       <c r="T158" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="159" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9532,26 +9476,26 @@
         <v>152</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F159" s="17"/>
       <c r="G159" s="18"/>
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
       <c r="J159" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K159" s="19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L159" s="19"/>
       <c r="M159" s="19"/>
@@ -9562,7 +9506,7 @@
       <c r="R159" s="20"/>
       <c r="S159" s="21"/>
       <c r="T159" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9570,26 +9514,26 @@
         <v>153</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="18"/>
       <c r="H160" s="18"/>
       <c r="I160" s="18"/>
       <c r="J160" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K160" s="19" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L160" s="19"/>
       <c r="M160" s="19"/>
@@ -9600,7 +9544,7 @@
       <c r="R160" s="20"/>
       <c r="S160" s="21"/>
       <c r="T160" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="161" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9608,26 +9552,26 @@
         <v>154</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="18"/>
       <c r="H161" s="18"/>
       <c r="I161" s="18"/>
       <c r="J161" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K161" s="19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L161" s="19"/>
       <c r="M161" s="19"/>
@@ -9638,7 +9582,7 @@
       <c r="R161" s="20"/>
       <c r="S161" s="21"/>
       <c r="T161" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="162" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9646,26 +9590,26 @@
         <v>155</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="18"/>
       <c r="H162" s="18"/>
       <c r="I162" s="18"/>
       <c r="J162" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K162" s="19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L162" s="19"/>
       <c r="M162" s="19"/>
@@ -9676,7 +9620,7 @@
       <c r="R162" s="20"/>
       <c r="S162" s="21"/>
       <c r="T162" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="163" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9684,26 +9628,26 @@
         <v>156</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F163" s="17"/>
       <c r="G163" s="18"/>
       <c r="H163" s="18"/>
       <c r="I163" s="18"/>
       <c r="J163" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K163" s="19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L163" s="19"/>
       <c r="M163" s="19"/>
@@ -9714,7 +9658,7 @@
       <c r="R163" s="20"/>
       <c r="S163" s="21"/>
       <c r="T163" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="164" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9722,26 +9666,26 @@
         <v>157</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F164" s="17"/>
       <c r="G164" s="18"/>
       <c r="H164" s="18"/>
       <c r="I164" s="18"/>
       <c r="J164" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K164" s="19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L164" s="19"/>
       <c r="M164" s="19"/>
@@ -9752,7 +9696,7 @@
       <c r="R164" s="20"/>
       <c r="S164" s="21"/>
       <c r="T164" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="165" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9760,26 +9704,26 @@
         <v>158</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F165" s="17"/>
       <c r="G165" s="18"/>
       <c r="H165" s="18"/>
       <c r="I165" s="18"/>
       <c r="J165" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K165" s="19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L165" s="19"/>
       <c r="M165" s="19"/>
@@ -9790,7 +9734,7 @@
       <c r="R165" s="20"/>
       <c r="S165" s="21"/>
       <c r="T165" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -9798,26 +9742,26 @@
         <v>159</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F166" s="17"/>
       <c r="G166" s="18"/>
       <c r="H166" s="18"/>
       <c r="I166" s="18"/>
       <c r="J166" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K166" s="19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L166" s="19"/>
       <c r="M166" s="19"/>
@@ -9828,7 +9772,7 @@
       <c r="R166" s="20"/>
       <c r="S166" s="21"/>
       <c r="T166" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -9836,26 +9780,26 @@
         <v>160</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F167" s="17"/>
       <c r="G167" s="18"/>
       <c r="H167" s="18"/>
       <c r="I167" s="18"/>
       <c r="J167" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K167" s="19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L167" s="19"/>
       <c r="M167" s="19"/>
@@ -9866,7 +9810,7 @@
       <c r="R167" s="20"/>
       <c r="S167" s="21"/>
       <c r="T167" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9874,26 +9818,26 @@
         <v>161</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F168" s="17"/>
       <c r="G168" s="18"/>
       <c r="H168" s="18"/>
       <c r="I168" s="18"/>
       <c r="J168" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K168" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L168" s="19"/>
       <c r="M168" s="19"/>
@@ -9904,7 +9848,7 @@
       <c r="R168" s="20"/>
       <c r="S168" s="21"/>
       <c r="T168" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9912,26 +9856,26 @@
         <v>162</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F169" s="17"/>
       <c r="G169" s="18"/>
       <c r="H169" s="18"/>
       <c r="I169" s="18"/>
       <c r="J169" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K169" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L169" s="19"/>
       <c r="M169" s="19"/>
@@ -9942,7 +9886,7 @@
       <c r="R169" s="20"/>
       <c r="S169" s="21"/>
       <c r="T169" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9950,26 +9894,26 @@
         <v>163</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F170" s="17"/>
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
       <c r="I170" s="18"/>
       <c r="J170" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K170" s="19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L170" s="19"/>
       <c r="M170" s="19"/>
@@ -9980,7 +9924,7 @@
       <c r="R170" s="20"/>
       <c r="S170" s="21"/>
       <c r="T170" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="171" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -9988,26 +9932,26 @@
         <v>164</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F171" s="17"/>
       <c r="G171" s="18"/>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
       <c r="J171" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K171" s="19" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L171" s="19"/>
       <c r="M171" s="19"/>
@@ -10018,7 +9962,7 @@
       <c r="R171" s="20"/>
       <c r="S171" s="21"/>
       <c r="T171" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="172" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10026,26 +9970,26 @@
         <v>165</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F172" s="17"/>
       <c r="G172" s="18"/>
       <c r="H172" s="18"/>
       <c r="I172" s="18"/>
       <c r="J172" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K172" s="19" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L172" s="19"/>
       <c r="M172" s="19"/>
@@ -10056,7 +10000,7 @@
       <c r="R172" s="20"/>
       <c r="S172" s="21"/>
       <c r="T172" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10064,26 +10008,26 @@
         <v>166</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F173" s="17"/>
       <c r="G173" s="18"/>
       <c r="H173" s="18"/>
       <c r="I173" s="18"/>
       <c r="J173" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K173" s="19" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L173" s="19"/>
       <c r="M173" s="19"/>
@@ -10094,7 +10038,7 @@
       <c r="R173" s="20"/>
       <c r="S173" s="21"/>
       <c r="T173" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="174" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10102,26 +10046,26 @@
         <v>167</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C174" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F174" s="17"/>
       <c r="G174" s="18"/>
       <c r="H174" s="18"/>
       <c r="I174" s="18"/>
       <c r="J174" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K174" s="19" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L174" s="19"/>
       <c r="M174" s="19"/>
@@ -10132,7 +10076,7 @@
       <c r="R174" s="20"/>
       <c r="S174" s="21"/>
       <c r="T174" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="175" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10140,26 +10084,26 @@
         <v>168</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C175" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F175" s="17"/>
       <c r="G175" s="18"/>
       <c r="H175" s="18"/>
       <c r="I175" s="18"/>
       <c r="J175" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K175" s="19" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L175" s="19"/>
       <c r="M175" s="19"/>
@@ -10170,7 +10114,7 @@
       <c r="R175" s="20"/>
       <c r="S175" s="21"/>
       <c r="T175" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:20" ht="129.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10178,26 +10122,26 @@
         <v>169</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C176" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F176" s="17"/>
       <c r="G176" s="18"/>
       <c r="H176" s="18"/>
       <c r="I176" s="18"/>
       <c r="J176" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K176" s="19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L176" s="19"/>
       <c r="M176" s="19"/>
@@ -10208,7 +10152,7 @@
       <c r="R176" s="20"/>
       <c r="S176" s="21"/>
       <c r="T176" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="177" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -10216,16 +10160,16 @@
         <v>170</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F177" s="17"/>
       <c r="G177" s="18"/>
@@ -10242,7 +10186,7 @@
       <c r="R177" s="20"/>
       <c r="S177" s="21"/>
       <c r="T177" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -10250,16 +10194,16 @@
         <v>171</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C178" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F178" s="17"/>
       <c r="G178" s="18"/>
@@ -10276,7 +10220,7 @@
       <c r="R178" s="20"/>
       <c r="S178" s="21"/>
       <c r="T178" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="179" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -10284,16 +10228,16 @@
         <v>172</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F179" s="17"/>
       <c r="G179" s="18"/>
@@ -10310,7 +10254,7 @@
       <c r="R179" s="20"/>
       <c r="S179" s="21"/>
       <c r="T179" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
@@ -10318,16 +10262,16 @@
         <v>173</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C180" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F180" s="17"/>
       <c r="G180" s="18"/>
@@ -10344,7 +10288,7 @@
       <c r="R180" s="20"/>
       <c r="S180" s="21"/>
       <c r="T180" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="181" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -10352,16 +10296,16 @@
         <v>174</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F181" s="17"/>
       <c r="G181" s="18"/>
@@ -10378,7 +10322,7 @@
       <c r="R181" s="20"/>
       <c r="S181" s="21"/>
       <c r="T181" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="182" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -10386,16 +10330,16 @@
         <v>175</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C182" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F182" s="17"/>
       <c r="G182" s="18"/>
@@ -10412,7 +10356,7 @@
       <c r="R182" s="20"/>
       <c r="S182" s="21"/>
       <c r="T182" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -10420,16 +10364,16 @@
         <v>176</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F183" s="17"/>
       <c r="G183" s="18"/>
@@ -10446,7 +10390,7 @@
       <c r="R183" s="20"/>
       <c r="S183" s="21"/>
       <c r="T183" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="184" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -10454,16 +10398,16 @@
         <v>177</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C184" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F184" s="17"/>
       <c r="G184" s="18"/>
@@ -10480,7 +10424,7 @@
       <c r="R184" s="20"/>
       <c r="S184" s="21"/>
       <c r="T184" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -10488,16 +10432,16 @@
         <v>178</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="F185" s="17"/>
       <c r="G185" s="18"/>
@@ -10514,7 +10458,7 @@
       <c r="R185" s="20"/>
       <c r="S185" s="21"/>
       <c r="T185" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="186" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10522,16 +10466,16 @@
         <v>179</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C186" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F186" s="17"/>
       <c r="G186" s="18"/>
@@ -10548,7 +10492,7 @@
       <c r="R186" s="20"/>
       <c r="S186" s="21"/>
       <c r="T186" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="187" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10556,16 +10500,16 @@
         <v>180</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F187" s="17"/>
       <c r="G187" s="18"/>
@@ -10582,7 +10526,7 @@
       <c r="R187" s="20"/>
       <c r="S187" s="21"/>
       <c r="T187" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="188" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -10590,16 +10534,16 @@
         <v>181</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C188" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F188" s="17"/>
       <c r="G188" s="18"/>
@@ -10616,7 +10560,7 @@
       <c r="R188" s="20"/>
       <c r="S188" s="21"/>
       <c r="T188" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="189" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10624,16 +10568,16 @@
         <v>182</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F189" s="17"/>
       <c r="G189" s="18"/>
@@ -10650,7 +10594,7 @@
       <c r="R189" s="20"/>
       <c r="S189" s="21"/>
       <c r="T189" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="190" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10658,16 +10602,16 @@
         <v>183</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C190" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F190" s="17"/>
       <c r="G190" s="18"/>
@@ -10684,7 +10628,7 @@
       <c r="R190" s="20"/>
       <c r="S190" s="21"/>
       <c r="T190" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10692,16 +10636,16 @@
         <v>184</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F191" s="17"/>
       <c r="G191" s="18"/>
@@ -10718,7 +10662,7 @@
       <c r="R191" s="20"/>
       <c r="S191" s="21"/>
       <c r="T191" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="192" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10726,16 +10670,16 @@
         <v>185</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C192" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F192" s="17"/>
       <c r="G192" s="18"/>
@@ -10752,7 +10696,7 @@
       <c r="R192" s="20"/>
       <c r="S192" s="21"/>
       <c r="T192" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="193" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10760,16 +10704,16 @@
         <v>186</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F193" s="17"/>
       <c r="G193" s="18"/>
@@ -10786,7 +10730,7 @@
       <c r="R193" s="20"/>
       <c r="S193" s="21"/>
       <c r="T193" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="194" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10794,16 +10738,16 @@
         <v>187</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F194" s="17"/>
       <c r="G194" s="18"/>
@@ -10820,7 +10764,7 @@
       <c r="R194" s="20"/>
       <c r="S194" s="21"/>
       <c r="T194" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10828,16 +10772,16 @@
         <v>188</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C195" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F195" s="17"/>
       <c r="G195" s="18"/>
@@ -10854,7 +10798,7 @@
       <c r="R195" s="20"/>
       <c r="S195" s="21"/>
       <c r="T195" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10862,16 +10806,16 @@
         <v>189</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C196" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F196" s="17"/>
       <c r="G196" s="18"/>
@@ -10888,7 +10832,7 @@
       <c r="R196" s="20"/>
       <c r="S196" s="21"/>
       <c r="T196" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="197" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -10896,16 +10840,16 @@
         <v>190</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C197" s="15" t="s">
         <v>110</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F197" s="17"/>
       <c r="G197" s="18"/>
@@ -10922,7 +10866,7 @@
       <c r="R197" s="20"/>
       <c r="S197" s="21"/>
       <c r="T197" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="198" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -10930,16 +10874,16 @@
         <v>191</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F198" s="17"/>
       <c r="G198" s="18"/>
@@ -10956,7 +10900,7 @@
       <c r="R198" s="20"/>
       <c r="S198" s="21"/>
       <c r="T198" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
@@ -10965,7 +10909,7 @@
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
       <c r="J199" s="8"/>
-      <c r="K199" s="44"/>
+      <c r="K199" s="42"/>
       <c r="L199" s="8"/>
       <c r="M199" s="8"/>
       <c r="N199" s="8"/>
@@ -24482,7 +24426,7 @@
         <filter val="RSA"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="15">
+    <filterColumn colId="5">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
@@ -24547,100 +24491,100 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>24</v>
-      </c>
       <c r="C1" s="31" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -24648,13 +24592,13 @@
         <v>113</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24662,27 +24606,27 @@
         <v>110</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C10" s="23">
         <v>191</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25693,27 +25637,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>32</v>
+      <c r="A1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>59</v>
+      <c r="A2" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>66</v>
+        <v>460</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26733,6 +26677,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100794258E7DE47134588D45098EBDB60F8" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3194f2ccada4dbd4f766fc5cce730de0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf65ce-24cf-486b-995b-57ece8b70f4e" xmlns:ns3="c50f76eb-a136-4a5c-b9b3-fbcc59ed104d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b17b18953fe681e8c031b46ce8399c7" ns2:_="" ns3:_="">
     <xsd:import namespace="0bdf65ce-24cf-486b-995b-57ece8b70f4e"/>
@@ -26909,15 +26862,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
@@ -26928,6 +26872,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B9D7C3-D777-4237-AA9B-A1AFEB0B9EAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26946,14 +26898,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
